--- a/Datasets/Virtual screening.xlsx
+++ b/Datasets/Virtual screening.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\HMRLBA\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C9DA3B-FF7B-4C0A-BC68-822E1ECD49A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FBC884-6CA4-4A1C-BF68-55D2797BF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA-approved drugs" sheetId="1" r:id="rId1"/>
-    <sheet name="18 EGF inhibitors" sheetId="2" r:id="rId2"/>
+    <sheet name="18 EGFR inhibitors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDA-approved drugs'!$C$1:$C$2617</definedName>
